--- a/Luban/ExcelConfig/Datas/checkpoint.xlsx
+++ b/Luban/ExcelConfig/Datas/checkpoint.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -46,9 +59,6 @@
     <t>##</t>
   </si>
   <si>
-    <t>这是ID</t>
-  </si>
-  <si>
     <t>别名</t>
   </si>
   <si>
@@ -74,12 +84,24 @@
   </si>
   <si>
     <t>Lv3</t>
+  </si>
+  <si>
+    <t>lv4</t>
+  </si>
+  <si>
+    <t>Lv4</t>
+  </si>
+  <si>
+    <t>lv5</t>
+  </si>
+  <si>
+    <t>Lv5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1017,20 +1039,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="1" max="2" width="8.875" customWidth="1"/>
     <col min="3" max="3" width="8.125" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
     <col min="5" max="5" width="24.625" customWidth="1"/>
@@ -1084,17 +1105,14 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
@@ -1112,13 +1130,13 @@
         <v>10000</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1126,13 +1144,13 @@
         <v>10001</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1140,13 +1158,41 @@
         <v>10002</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10">
+        <v>10003</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11">
+        <v>10004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
